--- a/harjoitustyo/Sidosryhmät.xlsx
+++ b/harjoitustyo/Sidosryhmät.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joona\Documents\TTY\JOTU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C528FC-955F-49CC-9D3B-C934B0B2CC7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED000B23-D6DB-4414-9A0B-3A41CFFC679D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F4E633BF-4413-4D51-A5D9-381FEEDC0A49}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="77">
   <si>
     <t>Sidosryhmäanalyysin tulokset</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>kilpailija</t>
+  </si>
+  <si>
+    <t>Hyödyntäjä / rajapinta</t>
+  </si>
+  <si>
+    <t>Varastotoimijat</t>
   </si>
 </sst>
 </file>
@@ -776,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D03F55C-68A9-4F73-A640-9E3A9A036A05}">
-  <dimension ref="B2:Q40"/>
+  <dimension ref="B2:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,15 +795,16 @@
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -822,55 +829,59 @@
         <v>64</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="2"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
@@ -885,13 +896,14 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="2"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
@@ -908,21 +920,22 @@
         <v>66</v>
       </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="2"/>
+      <c r="N7" s="11"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -939,21 +952,22 @@
         <v>66</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="H8" s="11"/>
       <c r="I8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="2"/>
+      <c r="N8" s="11"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -966,11 +980,12 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="11"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
@@ -985,11 +1000,12 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="2"/>
+      <c r="N10" s="11"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
@@ -1006,23 +1022,24 @@
         <v>69</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="11"/>
       <c r="K11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="11"/>
+      <c r="L11" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="M11" s="11"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="11"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -1039,23 +1056,24 @@
         <v>69</v>
       </c>
       <c r="G12" s="11"/>
-      <c r="H12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="11"/>
       <c r="K12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="11"/>
+      <c r="L12" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="M12" s="11"/>
-      <c r="N12" s="2"/>
+      <c r="N12" s="11"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
@@ -1072,19 +1090,20 @@
         <v>70</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="11"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -1103,17 +1122,18 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="2"/>
+      <c r="N14" s="11"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1126,11 +1146,12 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="2"/>
+      <c r="N15" s="11"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
@@ -1145,11 +1166,12 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="2"/>
+      <c r="N16" s="11"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
@@ -1169,18 +1191,19 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N17" s="2"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
@@ -1200,18 +1223,19 @@
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N18" s="2"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1224,11 +1248,12 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="2"/>
+      <c r="N19" s="11"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
@@ -1243,11 +1268,12 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="2"/>
+      <c r="N20" s="11"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>14</v>
       </c>
@@ -1263,28 +1289,31 @@
       <c r="F21" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="G21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="11"/>
       <c r="I21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="J21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="11"/>
       <c r="L21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>15</v>
       </c>
@@ -1302,22 +1331,23 @@
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M22" s="11"/>
+      <c r="N22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>15</v>
       </c>
@@ -1339,14 +1369,15 @@
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N23" s="2"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>15</v>
       </c>
@@ -1368,14 +1399,15 @@
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N24" s="2"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
@@ -1397,14 +1429,15 @@
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
-      <c r="M25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N25" s="2"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>16</v>
       </c>
@@ -1420,28 +1453,29 @@
       <c r="F26" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="2"/>
+      <c r="N26" s="11"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>48</v>
@@ -1449,42 +1483,56 @@
       <c r="F27" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="G27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="L27" s="11"/>
       <c r="M27" s="11"/>
-      <c r="N27" s="2"/>
+      <c r="N27" s="11"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="11"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="2"/>
+      <c r="M28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N28" s="11"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1496,58 +1544,48 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="2"/>
+      <c r="N29" s="11"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="2"/>
+      <c r="N30" s="11"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G31" s="11"/>
       <c r="H31" s="11" t="s">
         <v>62</v>
       </c>
@@ -1556,28 +1594,31 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="2"/>
+      <c r="N31" s="11"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="I32" s="11" t="s">
         <v>62</v>
       </c>
@@ -1585,33 +1626,45 @@
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
-      <c r="N32" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="N32" s="11"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F33" s="8"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="H33" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="J33" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1623,43 +1676,37 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
-      <c r="N34" s="2"/>
+      <c r="N34" s="11"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
-      <c r="N35" s="2"/>
+      <c r="N35" s="11"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>34</v>
@@ -1669,70 +1716,81 @@
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
-      <c r="N36" s="2"/>
+      <c r="N36" s="11"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F37" s="8"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="I37" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
-      <c r="N37" s="2"/>
+      <c r="N37" s="11"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
-      <c r="M38" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N38" s="2"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -1740,11 +1798,14 @@
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
-      <c r="N39" s="2"/>
+      <c r="N39" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -1757,9 +1818,28 @@
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
-      <c r="N40" s="2"/>
+      <c r="N40" s="11"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
